--- a/src/test/java/com/iNetBanking/testData/LoginData.xlsx
+++ b/src/test/java/com/iNetBanking/testData/LoginData.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>mngr83460</t>
-  </si>
-  <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>dAjAgAj</t>
+  </si>
+  <si>
+    <t>mngr270885</t>
+  </si>
+  <si>
+    <t>Yzumusy</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -441,7 +441,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,50 +452,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="23.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="23.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="23.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
